--- a/Policy-Templates/Official/OpenChain-2.0-Pre-ISO/en/Open-Source-Policy-Template-2.0-en.xlsx
+++ b/Policy-Templates/Official/OpenChain-2.0-Pre-ISO/en/Open-Source-Policy-Template-2.0-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shane/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shane/Documents/OpenChain GitHub/Reference-Material/Policy-Templates/Official/OpenChain-2.0-Pre-ISO/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D717B91-F410-5D47-A680-5848078A6A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19CBAF-E6E5-4742-A720-09DDBBD8B726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="25600" windowHeight="16060" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Here" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -204,18 +209,6 @@
     <t>How the OpenChain Open Source Policy Template works</t>
   </si>
   <si>
-    <t>All of the template policy text is contained in the spreadsheet tab named "The OpenChain Open Source Policy Template."
-Column A of the OpenChain Open Source Policy Template shows the specific section of the OpenChain Specification that content relates to.
-Column B of the OpenChain Open Source Policy Template contains the text of the OpenChain Specification requirement.
-Column C of the OpenChain Open Source Policy Template categorises the text in each row as follows:
-H = heading
-RQ = requirement
-RT= rationale
-VA = verification artefact
-TX= supporting policy text
-Column D of the OpenChain Open Source Policy Template is sample policy text which addresses the specific OpenChain Specification requirement.</t>
-  </si>
-  <si>
     <t>Appendix 1 – OpenChain Translation Note</t>
   </si>
   <si>
@@ -1967,6 +1960,18 @@
   </si>
   <si>
     <t>This is a sample list of open source licences classified as to their requirements and effect. It uses SPDX identifiers and contains a small subset of possible licences. It is anticipated that each organisation will populate their own (and will likely add proprietary licences to the mix).</t>
+  </si>
+  <si>
+    <t>All of the template policy text is contained in the spreadsheet tab named "The OpenChain Open Source Policy Template."
+Column A of the OpenChain Open Source Policy Template shows the specific section of the OpenChain Specification that content relates to.
+Column B of the OpenChain Open Source Policy Template contains the text of the OpenChain Specification requirement.
+Column C of the OpenChain Open Source Policy Template categorises the text in each row as follows:
+H = heading
+RQ = requirement
+RT= rationale
+VA = verification artifact
+TX= supporting policy text
+Column D of the OpenChain Open Source Policy Template is sample policy text which addresses the specific OpenChain Specification requirement.</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2307,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2314,7 +2319,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2336,10 +2341,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,10 +2353,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2360,10 +2365,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2375,22 +2380,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2402,7 +2407,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2411,7 +2416,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2420,7 +2425,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2432,7 +2437,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,47 +2449,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2502,11 +2498,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -3661,7 +3656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -3722,7 +3719,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -3730,12 +3727,12 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
@@ -3743,7 +3740,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3776,12 +3773,12 @@
     </row>
     <row r="14" spans="1:26" ht="26">
       <c r="A14" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
@@ -3789,7 +3786,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3822,22 +3819,22 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="26">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
@@ -3845,7 +3842,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3878,12 +3875,12 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3894,7 +3891,7 @@
     </row>
     <row r="30" spans="1:26" ht="17">
       <c r="A30" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -3902,12 +3899,12 @@
     </row>
     <row r="32" spans="1:26" ht="26">
       <c r="A32" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3918,7 +3915,7 @@
     </row>
     <row r="36" spans="1:1" ht="17">
       <c r="A36" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -3926,7 +3923,7 @@
     </row>
     <row r="38" spans="1:1" ht="26">
       <c r="A38" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3940,22 +3937,22 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="26">
       <c r="A44" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28">
+      <c r="A45" s="68" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28">
-      <c r="A45" s="71" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3989,24 +3986,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="126">
       <c r="A2" s="13"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="238">
@@ -4014,7 +4011,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="56">
@@ -4022,122 +4019,122 @@
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="112">
       <c r="A5" s="21"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="84">
       <c r="A6" s="21"/>
       <c r="B6" s="12"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="77" t="s">
-        <v>25</v>
+      <c r="D6" s="72" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="70">
       <c r="A7" s="21"/>
-      <c r="B7" s="75" t="s">
-        <v>26</v>
+      <c r="B7" s="70" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="75" t="s">
-        <v>26</v>
+      <c r="D7" s="70" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28">
       <c r="A8" s="21"/>
-      <c r="B8" s="75" t="s">
-        <v>27</v>
+      <c r="B8" s="70" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="75" t="s">
-        <v>27</v>
+      <c r="D8" s="70" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="70">
       <c r="A9" s="21"/>
-      <c r="B9" s="75" t="s">
-        <v>28</v>
+      <c r="B9" s="70" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="75" t="s">
-        <v>28</v>
+      <c r="D9" s="70" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42">
       <c r="D10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28">
       <c r="A11" s="21"/>
-      <c r="B11" s="78" t="s">
-        <v>30</v>
+      <c r="B11" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="78" t="s">
-        <v>30</v>
+      <c r="D11" s="73" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="56">
       <c r="A12" s="21"/>
-      <c r="B12" s="76" t="s">
-        <v>31</v>
+      <c r="B12" s="71" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="76" t="s">
-        <v>31</v>
+      <c r="D12" s="71" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="70">
       <c r="A13" s="21"/>
-      <c r="B13" s="75" t="s">
-        <v>32</v>
+      <c r="B13" s="70" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="75" t="s">
-        <v>32</v>
+      <c r="D13" s="70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="70">
       <c r="A14" s="21"/>
-      <c r="B14" s="75" t="s">
-        <v>33</v>
+      <c r="B14" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="75" t="s">
-        <v>33</v>
+      <c r="D14" s="70" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28">
       <c r="A15" s="21"/>
-      <c r="B15" s="76" t="s">
-        <v>34</v>
+      <c r="B15" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="76" t="s">
-        <v>34</v>
+      <c r="D15" s="71" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28">
       <c r="A16" s="28"/>
-      <c r="B16" s="75" t="s">
-        <v>35</v>
+      <c r="B16" s="70" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="75" t="s">
-        <v>35</v>
+      <c r="D16" s="70" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4153,13 +4150,13 @@
     </row>
     <row r="19" spans="1:4" ht="14">
       <c r="A19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="33"/>
     </row>
@@ -4168,62 +4165,62 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="56">
       <c r="A21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:4" ht="28">
       <c r="A22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="C22" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="84">
       <c r="A23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56">
       <c r="A24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="C24" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="35"/>
     </row>
@@ -4232,86 +4229,86 @@
         <v>1.2</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="154">
       <c r="A26" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="42">
       <c r="A27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="C27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28">
       <c r="A28" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="C28" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="56">
       <c r="A29" s="31"/>
       <c r="B29" s="34"/>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56">
       <c r="A30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="42">
       <c r="A31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="35"/>
     </row>
@@ -4320,38 +4317,38 @@
         <v>1.3</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="84">
       <c r="A33" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="42">
       <c r="A34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="35"/>
     </row>
@@ -4360,36 +4357,36 @@
         <v>1.4</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:4" ht="56">
       <c r="A36" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="C36" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="56">
       <c r="A37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="C37" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="35"/>
     </row>
@@ -4398,36 +4395,36 @@
         <v>1.5</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="110" customHeight="1">
       <c r="A39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="C39" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="42">
       <c r="A40" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="35"/>
     </row>
@@ -4436,10 +4433,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="33"/>
     </row>
@@ -4448,50 +4445,50 @@
         <v>2.1</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="70"/>
+        <v>41</v>
+      </c>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="1:4" ht="42">
       <c r="A43" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="C43" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="98">
       <c r="A44" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="C44" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42">
       <c r="A45" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="35"/>
     </row>
@@ -4500,100 +4497,100 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4" ht="168">
       <c r="A47" s="31"/>
       <c r="B47" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="42">
       <c r="A48" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="C48" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="98">
       <c r="A49" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="C49" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="56">
       <c r="A50" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="C50" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="266">
       <c r="A51" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="C51" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="196">
       <c r="A52" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="56">
       <c r="A53" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>111</v>
-      </c>
       <c r="C53" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="35"/>
     </row>
@@ -4602,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="35"/>
     </row>
@@ -4614,64 +4611,64 @@
         <v>3.1</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="70">
       <c r="A56" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>113</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="112">
       <c r="A57" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="C57" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="70">
       <c r="A58" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="C58" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="84">
       <c r="A59" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>122</v>
-      </c>
       <c r="C59" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="35"/>
     </row>
@@ -4680,48 +4677,48 @@
         <v>3.2</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="35"/>
     </row>
     <row r="61" spans="1:4" ht="182">
       <c r="A61" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="140">
       <c r="A62" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="C62" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="56">
       <c r="A63" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="C63" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="35"/>
     </row>
@@ -4730,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" s="33"/>
     </row>
@@ -4742,52 +4739,52 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="168">
       <c r="A66" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="C66" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="98">
       <c r="A67" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="C67" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="42">
       <c r="A68" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>141</v>
-      </c>
       <c r="C68" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="35"/>
     </row>
@@ -4796,10 +4793,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D69" s="33"/>
     </row>
@@ -4808,66 +4805,66 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B70" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="35" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="266">
       <c r="A71" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="C71" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="45" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="126">
       <c r="A72" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="C72" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="70">
       <c r="A73" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="C73" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D73" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="84">
       <c r="A74" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="36" t="s">
-        <v>155</v>
-      </c>
       <c r="C74" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D74" s="35"/>
     </row>
@@ -4876,10 +4873,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" s="33"/>
     </row>
@@ -4888,38 +4885,38 @@
         <v>6.1</v>
       </c>
       <c r="B76" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="70">
       <c r="A77" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="C77" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56">
       <c r="A78" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>163</v>
-      </c>
       <c r="C78" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="35"/>
     </row>
@@ -4928,36 +4925,36 @@
         <v>6.2</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" s="35"/>
     </row>
     <row r="80" spans="1:4" ht="154">
       <c r="A80" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="C80" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="70">
       <c r="A81" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="36" t="s">
-        <v>169</v>
-      </c>
       <c r="C81" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="35"/>
     </row>
@@ -4965,10 +4962,10 @@
       <c r="A82" s="46"/>
       <c r="B82" s="47"/>
       <c r="C82" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5001,12 +4998,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="28">
       <c r="A1" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="280">
       <c r="A2" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5041,25 +5038,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="69" t="s">
-        <v>331</v>
+      <c r="B1" s="64" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="B2" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>175</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -5068,17 +5065,17 @@
         <v>3-clause BSD License</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="52" t="str">
         <f>IF(F3="yes","SaaS",IF(E3="no","permissive",IF(E3="yes","copyleft",E3)))</f>
         <v>permissive</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -5087,17 +5084,17 @@
         <v>Apache License 2.0</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="52" t="str">
         <f>IF(F4="yes","SaaS",IF(E4="no","permissive",E4))</f>
         <v>permissive</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14">
@@ -5105,18 +5102,18 @@
         <f>HYPERLINK("https://opensource.org/licenses/AGPL-3.0","GNU Affero General Public License version 3")</f>
         <v>GNU Affero General Public License version 3</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>186</v>
+      <c r="C5" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>IF(F5="yes","SaaS",IF(E5="no","permissive",IF(E5="yes","copyleft",E5)))</f>
         <v>SaaS</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>178</v>
+      <c r="E5" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14">
@@ -5124,17 +5121,17 @@
         <f>HYPERLINK("https://opensource.org/licenses/GPL-2.0","GNU General Public License version 2")</f>
         <v>GNU General Public License version 2</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>177</v>
+      <c r="C6" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14">
@@ -5142,17 +5139,17 @@
         <f>HYPERLINK("https://opensource.org/licenses/GPL-3.0","GNU General Public License version 3")</f>
         <v>GNU General Public License version 3</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>177</v>
+      <c r="C7" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14">
@@ -5160,17 +5157,17 @@
         <f>HYPERLINK("https://opensource.org/licenses/LGPL-2.1","GNU Lesser General Public License version 2.1")</f>
         <v>GNU Lesser General Public License version 2.1</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>177</v>
+      <c r="F8" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14">
@@ -5178,17 +5175,17 @@
         <f>HYPERLINK("https://opensource.org/licenses/LGPL-3.0","GNU Lesser General Public License version 3")</f>
         <v>GNU Lesser General Public License version 3</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="C9" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>177</v>
+      <c r="F9" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14">
@@ -5196,18 +5193,18 @@
         <f>HYPERLINK("https://opensource.org/licenses/MIT","MIT License ")</f>
         <v xml:space="preserve">MIT License </v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>191</v>
+      <c r="C10" s="55" t="s">
+        <v>190</v>
       </c>
       <c r="D10" s="52" t="str">
         <f>IF(F10="yes","SaaS",IF(E10="no","permissive",IF(E10="yes","copyleft",E10)))</f>
         <v>permissive</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14">
@@ -5215,17 +5212,17 @@
         <f>HYPERLINK("https://opensource.org/licenses/MPL-1.0","Mozilla Public License 1.0 ")</f>
         <v xml:space="preserve">Mozilla Public License 1.0 </v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>177</v>
+      <c r="F11" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14">
@@ -5233,46 +5230,46 @@
         <f>HYPERLINK("https://opensource.org/licenses/MPL-1.1","Mozilla Public License 1.1")</f>
         <v>Mozilla Public License 1.1</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>177</v>
+      <c r="F12" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82" t="str">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76" t="str">
         <f>HYPERLINK("https://opensource.org/licenses/MPL-2.0","Mozilla Public License 2.0 ")</f>
         <v xml:space="preserve">Mozilla Public License 2.0 </v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14">
-      <c r="C14" s="80"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-    </row>
-    <row r="20" spans="2:2" ht="14">
-      <c r="B20" s="59"/>
+      <c r="F13" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="61"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="58"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C13">
@@ -5282,11 +5279,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D929">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="saas"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D929">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="copyleft"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D929">
     <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="permissive"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5325,7 +5318,7 @@
     <row r="1" spans="1:26" ht="28">
       <c r="A1" s="12"/>
       <c r="B1" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="27"/>
@@ -5385,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5418,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -5451,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5484,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -5517,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -5550,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -5583,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5616,7 +5609,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5673,11 +5666,11 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="12"/>
-      <c r="B12" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -5706,10 +5699,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+        <v>203</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -5738,10 +5731,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+        <v>204</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -5769,11 +5762,11 @@
       <c r="A15" s="12">
         <v>3</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -5801,11 +5794,11 @@
       <c r="A16" s="12">
         <v>4</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="B16" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -5834,10 +5827,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+        <v>207</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -5865,11 +5858,11 @@
       <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -5896,8 +5889,8 @@
     <row r="19" spans="1:26">
       <c r="A19" s="12"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -5924,8 +5917,8 @@
     <row r="20" spans="1:26">
       <c r="A20" s="12"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -5952,13 +5945,13 @@
     <row r="21" spans="1:26" ht="14">
       <c r="A21" s="12"/>
       <c r="B21" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="D21" s="60" t="s">
         <v>211</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>212</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -5985,13 +5978,13 @@
     </row>
     <row r="22" spans="1:26" ht="14">
       <c r="A22" s="12"/>
-      <c r="B22" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="65">
+      <c r="B22" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="63">
         <v>0</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="63">
         <v>10</v>
       </c>
       <c r="E22" s="12"/>
@@ -6022,13 +6015,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -6059,13 +6052,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6096,13 +6089,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -6133,13 +6126,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -6170,13 +6163,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -6207,13 +6200,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -6244,13 +6237,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -6281,13 +6274,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -6318,13 +6311,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -6408,10 +6401,10 @@
     <row r="34" spans="1:26" ht="28">
       <c r="A34" s="12"/>
       <c r="B34" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -6440,22 +6433,22 @@
     <row r="35" spans="1:26" ht="14">
       <c r="A35" s="12"/>
       <c r="B35" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="D35" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="E35" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="F35" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="G35" s="27" t="s">
         <v>247</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -6480,19 +6473,19 @@
     <row r="36" spans="1:26" ht="14">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -6518,19 +6511,19 @@
     <row r="37" spans="1:26" ht="14">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="F37" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -6556,22 +6549,22 @@
     <row r="38" spans="1:26" ht="28">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -6596,22 +6589,22 @@
     <row r="39" spans="1:26" ht="28">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="D39" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -6636,22 +6629,22 @@
     <row r="40" spans="1:26" ht="28">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>251</v>
-      </c>
       <c r="G40" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -6676,19 +6669,19 @@
     <row r="41" spans="1:26" ht="14">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -6714,19 +6707,19 @@
     <row r="42" spans="1:26" ht="14">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -6752,19 +6745,19 @@
     <row r="43" spans="1:26" ht="14">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -6790,19 +6783,19 @@
     <row r="44" spans="1:26" ht="14">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E44" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -6828,19 +6821,19 @@
     <row r="45" spans="1:26" ht="14">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -6866,19 +6859,19 @@
     <row r="46" spans="1:26" ht="14">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -6904,19 +6897,19 @@
     <row r="47" spans="1:26" ht="14">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="E47" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -6942,22 +6935,22 @@
     <row r="48" spans="1:26" ht="42">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -6981,23 +6974,23 @@
     </row>
     <row r="49" spans="1:26" ht="28">
       <c r="A49" s="12"/>
-      <c r="B49" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="63" t="s">
+      <c r="B49" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="F49" s="63" t="s">
-        <v>251</v>
-      </c>
       <c r="G49" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -7022,19 +7015,19 @@
     <row r="50" spans="1:26" ht="14">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -7060,19 +7053,19 @@
     <row r="51" spans="1:26" ht="14">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -7121,13 +7114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="69" t="s">
-        <v>329</v>
+      <c r="A1" s="64" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7156,8 +7149,8 @@
       <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="28">
-      <c r="A3" s="62" t="s">
-        <v>272</v>
+      <c r="A3" s="60" t="s">
+        <v>271</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7215,7 +7208,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7245,7 +7238,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7275,7 +7268,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7305,7 +7298,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7335,7 +7328,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7365,7 +7358,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7395,7 +7388,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7425,7 +7418,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7455,7 +7448,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7513,7 +7506,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7543,7 +7536,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7573,7 +7566,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -7603,7 +7596,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7633,7 +7626,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7663,7 +7656,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -7725,587 +7718,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="66"/>
+      <c r="A1" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" spans="1:11" s="72" customFormat="1" ht="28">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="28">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="84">
+      <c r="A5" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="I4" s="74" t="s">
+      <c r="C5" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:11" s="38" customFormat="1" ht="84">
-      <c r="A5" s="67" t="s">
+      <c r="I5" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="38" customFormat="1" ht="56">
+      <c r="A6" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="D6" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="38" customFormat="1" ht="84">
+      <c r="A7" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C7" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F7" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="G7" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="J7" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="38" customFormat="1" ht="70">
+      <c r="A8" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="42">
+      <c r="A9" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="38" customFormat="1" ht="56">
-      <c r="A6" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="38" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="42">
+      <c r="A10" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="G10" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="38" customFormat="1" ht="84">
-      <c r="A7" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="38" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="56">
+      <c r="A11" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E11" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="F11" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="38" customFormat="1" ht="70">
-      <c r="A8" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="G11" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="98">
+      <c r="A12" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="F12" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="42">
-      <c r="A9" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="G12" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="56">
+      <c r="A13" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="E13" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="F13" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="G13" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42">
+      <c r="A14" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="112">
+      <c r="A15" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="42">
+      <c r="A16" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42">
+      <c r="A17" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="84">
+      <c r="A18" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42">
+      <c r="A19" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42">
+      <c r="A20" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42">
+      <c r="A21" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="42">
-      <c r="A10" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="I21" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42">
+      <c r="A22" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F22" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="56">
-      <c r="A11" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="26" t="s">
+      <c r="G22" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="98">
-      <c r="A12" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="56">
-      <c r="A13" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="42">
-      <c r="A14" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="112">
-      <c r="A15" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42">
-      <c r="A16" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42">
-      <c r="A17" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="84">
-      <c r="A18" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42">
-      <c r="A19" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="42">
-      <c r="A20" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="42">
-      <c r="A21" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42">
-      <c r="A22" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>403</v>
-      </c>
-    </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8328,709 +8321,709 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14">
+      <c r="A3" s="66" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="14">
-      <c r="A3" s="68" t="s">
+      <c r="B3" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="42">
+      <c r="A4" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="42">
+      <c r="A5" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="42">
-      <c r="A4" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="B5" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28">
+      <c r="A7" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28">
+      <c r="A8" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28">
+      <c r="A9" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28">
+      <c r="A10" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="28">
+      <c r="A11" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28">
+      <c r="A12" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="42">
+      <c r="A13" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28">
+      <c r="A14" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="28">
+      <c r="A15" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14">
+      <c r="A16" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="28">
+      <c r="A18" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="42">
-      <c r="A5" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="28">
-      <c r="A7" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="28">
-      <c r="A8" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="28">
-      <c r="A9" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="28">
-      <c r="A10" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="28">
-      <c r="A11" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="28">
-      <c r="A12" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="42">
-      <c r="A13" s="72" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="28">
-      <c r="A14" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="28">
-      <c r="A15" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14">
-      <c r="A16" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="73" t="s">
+      <c r="B18" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="28">
-      <c r="A18" s="72" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="28">
+      <c r="A19" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B19" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="28">
-      <c r="A19" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>367</v>
       </c>
       <c r="C19">
         <v>1</v>
